--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_100ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_100ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1752,28 +1752,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>165.944937765969</v>
+        <v>190.1655467927328</v>
       </c>
       <c r="AB2" t="n">
-        <v>227.053184825262</v>
+        <v>260.1928906335203</v>
       </c>
       <c r="AC2" t="n">
-        <v>205.3835475367507</v>
+        <v>235.3604463345486</v>
       </c>
       <c r="AD2" t="n">
-        <v>165944.937765969</v>
+        <v>190165.5467927328</v>
       </c>
       <c r="AE2" t="n">
-        <v>227053.184825262</v>
+        <v>260192.8906335203</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.341666446988023e-06</v>
+        <v>8.033219637850834e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>205383.5475367507</v>
+        <v>235360.4463345486</v>
       </c>
     </row>
     <row r="3">
@@ -1858,28 +1858,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>83.05402648095574</v>
+        <v>95.16437574861318</v>
       </c>
       <c r="AB3" t="n">
-        <v>113.6381831162481</v>
+        <v>130.2080972551514</v>
       </c>
       <c r="AC3" t="n">
-        <v>102.7927144118543</v>
+        <v>117.7812192013666</v>
       </c>
       <c r="AD3" t="n">
-        <v>83054.02648095574</v>
+        <v>95164.37574861318</v>
       </c>
       <c r="AE3" t="n">
-        <v>113638.1831162481</v>
+        <v>130208.0972551514</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.764515018997603e-06</v>
+        <v>1.251612383278469e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.246875</v>
       </c>
       <c r="AH3" t="n">
-        <v>102792.7144118543</v>
+        <v>117781.2192013666</v>
       </c>
     </row>
     <row r="4">
@@ -1964,28 +1964,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>82.86815919177897</v>
+        <v>94.97850845943641</v>
       </c>
       <c r="AB4" t="n">
-        <v>113.3838712913104</v>
+        <v>129.9537854302138</v>
       </c>
       <c r="AC4" t="n">
-        <v>102.5626737505598</v>
+        <v>117.551178540072</v>
       </c>
       <c r="AD4" t="n">
-        <v>82868.15919177898</v>
+        <v>94978.50845943642</v>
       </c>
       <c r="AE4" t="n">
-        <v>113383.8712913104</v>
+        <v>129953.7854302138</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.795442517628746e-06</v>
+        <v>1.257334780251771e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.236458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>102562.6737505598</v>
+        <v>117551.178540072</v>
       </c>
     </row>
   </sheetData>
@@ -2261,28 +2261,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>96.03955576597407</v>
+        <v>119.4816391768366</v>
       </c>
       <c r="AB2" t="n">
-        <v>131.4055571651214</v>
+        <v>163.4800498795779</v>
       </c>
       <c r="AC2" t="n">
-        <v>118.8643952181749</v>
+        <v>147.8777433648072</v>
       </c>
       <c r="AD2" t="n">
-        <v>96039.55576597407</v>
+        <v>119481.6391768366</v>
       </c>
       <c r="AE2" t="n">
-        <v>131405.5571651214</v>
+        <v>163480.0498795779</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.920260195639964e-06</v>
+        <v>1.128492962084626e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.655208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>118864.3952181749</v>
+        <v>147877.7433648072</v>
       </c>
     </row>
     <row r="3">
@@ -2367,28 +2367,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>80.89933195068929</v>
+        <v>92.57779273738578</v>
       </c>
       <c r="AB3" t="n">
-        <v>110.6900350015252</v>
+        <v>126.669020267203</v>
       </c>
       <c r="AC3" t="n">
-        <v>100.1259334154478</v>
+        <v>114.5799067540211</v>
       </c>
       <c r="AD3" t="n">
-        <v>80899.33195068929</v>
+        <v>92577.79273738578</v>
       </c>
       <c r="AE3" t="n">
-        <v>110690.0350015252</v>
+        <v>126669.020267203</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.759349815251941e-06</v>
+        <v>1.288436393454034e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.326041666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>100125.9334154478</v>
+        <v>114579.9067540211</v>
       </c>
     </row>
   </sheetData>
@@ -2664,28 +2664,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.47073412937675</v>
+        <v>106.3122782571866</v>
       </c>
       <c r="AB2" t="n">
-        <v>116.9448291384328</v>
+        <v>145.4611492781223</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.7837787785896</v>
+        <v>131.578541347063</v>
       </c>
       <c r="AD2" t="n">
-        <v>85470.73412937675</v>
+        <v>106312.2782571866</v>
       </c>
       <c r="AE2" t="n">
-        <v>116944.8291384328</v>
+        <v>145461.1492781223</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.894828016129479e-06</v>
+        <v>1.255444098056696e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.976041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>105783.7787785896</v>
+        <v>131578.541347063</v>
       </c>
     </row>
   </sheetData>
@@ -2961,28 +2961,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.04088210191659</v>
+        <v>92.0980190026884</v>
       </c>
       <c r="AB2" t="n">
-        <v>110.8837101631862</v>
+        <v>126.012572677267</v>
       </c>
       <c r="AC2" t="n">
-        <v>100.3011244915048</v>
+        <v>113.9861096007384</v>
       </c>
       <c r="AD2" t="n">
-        <v>81040.88210191659</v>
+        <v>92098.01900268841</v>
       </c>
       <c r="AE2" t="n">
-        <v>110883.7101631862</v>
+        <v>126012.572677267</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.403182115073802e-06</v>
+        <v>1.300067347639618e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.620833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>100301.1244915048</v>
+        <v>113986.1096007384</v>
       </c>
     </row>
     <row r="3">
@@ -3067,28 +3067,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>81.3427638698704</v>
+        <v>92.39990077064222</v>
       </c>
       <c r="AB3" t="n">
-        <v>111.2967581161841</v>
+        <v>126.4256206302649</v>
       </c>
       <c r="AC3" t="n">
-        <v>100.6747517275851</v>
+        <v>114.3597368368188</v>
       </c>
       <c r="AD3" t="n">
-        <v>81342.7638698704</v>
+        <v>92399.90077064221</v>
       </c>
       <c r="AE3" t="n">
-        <v>111296.7581161841</v>
+        <v>126425.6206302649</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.403665422736087e-06</v>
+        <v>1.300165475804538e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.620833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>100674.7517275851</v>
+        <v>114359.7368368188</v>
       </c>
     </row>
   </sheetData>
@@ -3364,28 +3364,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>103.8266770659235</v>
+        <v>123.749061459318</v>
       </c>
       <c r="AB2" t="n">
-        <v>142.0602400712525</v>
+        <v>169.31892531185</v>
       </c>
       <c r="AC2" t="n">
-        <v>128.5022101416896</v>
+        <v>153.1593647207382</v>
       </c>
       <c r="AD2" t="n">
-        <v>103826.6770659235</v>
+        <v>123749.061459318</v>
       </c>
       <c r="AE2" t="n">
-        <v>142060.2400712525</v>
+        <v>169318.92531185</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.274023699895177e-06</v>
+        <v>1.174422063604463e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.454166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>128502.2101416896</v>
+        <v>153159.3647207382</v>
       </c>
     </row>
   </sheetData>
@@ -3661,28 +3661,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.6341011590687</v>
+        <v>131.3032209596804</v>
       </c>
       <c r="AB2" t="n">
-        <v>147.2697256871872</v>
+        <v>179.6548596062371</v>
       </c>
       <c r="AC2" t="n">
-        <v>133.2145097620002</v>
+        <v>162.5088519526472</v>
       </c>
       <c r="AD2" t="n">
-        <v>107634.1011590687</v>
+        <v>131303.2209596804</v>
       </c>
       <c r="AE2" t="n">
-        <v>147269.7256871873</v>
+        <v>179654.8596062371</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.478373166595458e-06</v>
+        <v>1.035830894655689e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.84375</v>
       </c>
       <c r="AH2" t="n">
-        <v>133214.5097620002</v>
+        <v>162508.8519526472</v>
       </c>
     </row>
     <row r="3">
@@ -3767,28 +3767,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>81.23452755657996</v>
+        <v>93.02650653815108</v>
       </c>
       <c r="AB3" t="n">
-        <v>111.148664417291</v>
+        <v>127.2829702852655</v>
       </c>
       <c r="AC3" t="n">
-        <v>100.5407918834636</v>
+        <v>115.1352622440442</v>
       </c>
       <c r="AD3" t="n">
-        <v>81234.52755657997</v>
+        <v>93026.50653815108</v>
       </c>
       <c r="AE3" t="n">
-        <v>111148.664417291</v>
+        <v>127282.9702852655</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.777149922771132e-06</v>
+        <v>1.281398885078566e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.298958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>100540.7918834636</v>
+        <v>115135.2622440442</v>
       </c>
     </row>
   </sheetData>
@@ -4064,28 +4064,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>111.906931687488</v>
+        <v>131.5061096570853</v>
       </c>
       <c r="AB2" t="n">
-        <v>153.1160009201466</v>
+        <v>179.9324608728439</v>
       </c>
       <c r="AC2" t="n">
-        <v>138.5028246920267</v>
+        <v>162.759959343985</v>
       </c>
       <c r="AD2" t="n">
-        <v>111906.931687488</v>
+        <v>131506.1096570853</v>
       </c>
       <c r="AE2" t="n">
-        <v>153116.0009201466</v>
+        <v>179932.4608728439</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.804536398560702e-06</v>
+        <v>1.101472038778154e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.880208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>138502.8246920267</v>
+        <v>162759.959343985</v>
       </c>
     </row>
   </sheetData>
@@ -4361,28 +4361,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.67904924429702</v>
+        <v>91.98908856493328</v>
       </c>
       <c r="AB2" t="n">
-        <v>110.3886344844523</v>
+        <v>125.8635292466588</v>
       </c>
       <c r="AC2" t="n">
-        <v>99.85329814070597</v>
+        <v>113.8512906659636</v>
       </c>
       <c r="AD2" t="n">
-        <v>80679.04924429701</v>
+        <v>91989.08856493328</v>
       </c>
       <c r="AE2" t="n">
-        <v>110388.6344844523</v>
+        <v>125863.5292466588</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.612196332146253e-06</v>
+        <v>1.295981343088855e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="AH2" t="n">
-        <v>99853.29814070597</v>
+        <v>113851.2906659636</v>
       </c>
     </row>
     <row r="3">
@@ -4467,28 +4467,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>80.26503777992409</v>
+        <v>91.57507710056036</v>
       </c>
       <c r="AB3" t="n">
-        <v>109.8221657340008</v>
+        <v>125.2970604962073</v>
       </c>
       <c r="AC3" t="n">
-        <v>99.34089237275353</v>
+        <v>113.3388848980112</v>
       </c>
       <c r="AD3" t="n">
-        <v>80265.03777992408</v>
+        <v>91575.07710056036</v>
       </c>
       <c r="AE3" t="n">
-        <v>109822.1657340008</v>
+        <v>125297.0604962073</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.65837675097394e-06</v>
+        <v>1.305032641358047e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.432291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>99340.89237275353</v>
+        <v>113338.8848980112</v>
       </c>
     </row>
   </sheetData>
@@ -4764,28 +4764,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.20445077712728</v>
+        <v>99.93566889770332</v>
       </c>
       <c r="AB2" t="n">
-        <v>120.6852208589499</v>
+        <v>136.736391036331</v>
       </c>
       <c r="AC2" t="n">
-        <v>109.1671927629746</v>
+        <v>123.6864617865904</v>
       </c>
       <c r="AD2" t="n">
-        <v>88204.45077712728</v>
+        <v>99935.66889770332</v>
       </c>
       <c r="AE2" t="n">
-        <v>120685.2208589499</v>
+        <v>136736.391036331</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.266260758423982e-06</v>
+        <v>1.204815886806164e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.532291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>109167.1927629746</v>
+        <v>123686.4617865904</v>
       </c>
     </row>
     <row r="3">
@@ -4870,28 +4870,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>80.69662311569198</v>
+        <v>92.25724903567583</v>
       </c>
       <c r="AB3" t="n">
-        <v>110.4126798305993</v>
+        <v>126.2304382331336</v>
       </c>
       <c r="AC3" t="n">
-        <v>99.87504863276463</v>
+        <v>114.1831823737294</v>
       </c>
       <c r="AD3" t="n">
-        <v>80696.62311569198</v>
+        <v>92257.24903567582</v>
       </c>
       <c r="AE3" t="n">
-        <v>110412.6798305993</v>
+        <v>126230.4382331336</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.72361202138352e-06</v>
+        <v>1.292750955056197e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.360416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>99875.04863276464</v>
+        <v>114183.1823737294</v>
       </c>
     </row>
   </sheetData>
@@ -5167,28 +5167,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>147.7985715527731</v>
+        <v>159.8915165006935</v>
       </c>
       <c r="AB2" t="n">
-        <v>202.2245260112031</v>
+        <v>218.7706267920179</v>
       </c>
       <c r="AC2" t="n">
-        <v>182.9245010726563</v>
+        <v>197.8914652175536</v>
       </c>
       <c r="AD2" t="n">
-        <v>147798.5715527731</v>
+        <v>159891.5165006935</v>
       </c>
       <c r="AE2" t="n">
-        <v>202224.5260112031</v>
+        <v>218770.6267920179</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.705914352525328e-06</v>
+        <v>8.766761511978286e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.255208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>182924.5010726562</v>
+        <v>197891.4652175536</v>
       </c>
     </row>
     <row r="3">
@@ -5273,28 +5273,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>81.72328152302568</v>
+        <v>93.73088561637448</v>
       </c>
       <c r="AB3" t="n">
-        <v>111.8173991564849</v>
+        <v>128.2467328151021</v>
       </c>
       <c r="AC3" t="n">
-        <v>101.1457035177241</v>
+        <v>116.0070446306826</v>
       </c>
       <c r="AD3" t="n">
-        <v>81723.28152302568</v>
+        <v>93730.88561637448</v>
       </c>
       <c r="AE3" t="n">
-        <v>111817.3991564849</v>
+        <v>128246.7328151021</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.8266785795149e-06</v>
+        <v>1.27175844144766e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.24375</v>
       </c>
       <c r="AH3" t="n">
-        <v>101145.7035177241</v>
+        <v>116007.0446306826</v>
       </c>
     </row>
   </sheetData>
@@ -5570,28 +5570,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.75481013192942</v>
+        <v>91.96063447560992</v>
       </c>
       <c r="AB2" t="n">
-        <v>110.4922938732454</v>
+        <v>125.8245971063408</v>
       </c>
       <c r="AC2" t="n">
-        <v>99.94706442291957</v>
+        <v>113.816074154476</v>
       </c>
       <c r="AD2" t="n">
-        <v>80754.81013192942</v>
+        <v>91960.63447560993</v>
       </c>
       <c r="AE2" t="n">
-        <v>110492.2938732454</v>
+        <v>125824.5971063408</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.489607062137703e-06</v>
+        <v>1.300840019081305e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.553125</v>
       </c>
       <c r="AH2" t="n">
-        <v>99947.06442291956</v>
+        <v>113816.074154476</v>
       </c>
     </row>
     <row r="3">
@@ -5676,28 +5676,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>80.67747734722168</v>
+        <v>91.88330169090219</v>
       </c>
       <c r="AB3" t="n">
-        <v>110.3864837455266</v>
+        <v>125.718786978622</v>
       </c>
       <c r="AC3" t="n">
-        <v>99.85135266528478</v>
+        <v>113.7203623968412</v>
       </c>
       <c r="AD3" t="n">
-        <v>80677.47734722168</v>
+        <v>91883.30169090218</v>
       </c>
       <c r="AE3" t="n">
-        <v>110386.4837455266</v>
+        <v>125718.786978622</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.513947264635854e-06</v>
+        <v>1.30571900623399e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.54375</v>
       </c>
       <c r="AH3" t="n">
-        <v>99851.35266528478</v>
+        <v>113720.3623968412</v>
       </c>
     </row>
   </sheetData>
@@ -5973,28 +5973,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.59149231388518</v>
+        <v>104.7966494730574</v>
       </c>
       <c r="AB2" t="n">
-        <v>114.3735675801808</v>
+        <v>143.3873991108549</v>
       </c>
       <c r="AC2" t="n">
-        <v>103.4579148146682</v>
+        <v>129.7027069852323</v>
       </c>
       <c r="AD2" t="n">
-        <v>83591.49231388519</v>
+        <v>104796.6494730574</v>
       </c>
       <c r="AE2" t="n">
-        <v>114373.5675801809</v>
+        <v>143387.3991108549</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.095832895095005e-06</v>
+        <v>1.275286363723e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.83125</v>
       </c>
       <c r="AH2" t="n">
-        <v>103457.9148146682</v>
+        <v>129702.7069852322</v>
       </c>
     </row>
     <row r="3">
@@ -6079,28 +6079,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>83.68207207646805</v>
+        <v>104.8872292356402</v>
       </c>
       <c r="AB3" t="n">
-        <v>114.4975028074438</v>
+        <v>143.5113343381178</v>
       </c>
       <c r="AC3" t="n">
-        <v>103.5700218377853</v>
+        <v>129.8148140083494</v>
       </c>
       <c r="AD3" t="n">
-        <v>83682.07207646804</v>
+        <v>104887.2292356402</v>
       </c>
       <c r="AE3" t="n">
-        <v>114497.5028074438</v>
+        <v>143511.3343381178</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.113730134531466e-06</v>
+        <v>1.279030578138715e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.823958333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>103570.0218377853</v>
+        <v>129814.8140083494</v>
       </c>
     </row>
   </sheetData>
@@ -9965,28 +9965,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>98.95834447613888</v>
+        <v>109.2238191875838</v>
       </c>
       <c r="AB2" t="n">
-        <v>135.3991726462368</v>
+        <v>149.4448480272102</v>
       </c>
       <c r="AC2" t="n">
-        <v>122.4768656428485</v>
+        <v>135.1820414786955</v>
       </c>
       <c r="AD2" t="n">
-        <v>98958.34447613888</v>
+        <v>109223.8191875838</v>
       </c>
       <c r="AE2" t="n">
-        <v>135399.1726462368</v>
+        <v>149444.8480272102</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.629587935976589e-06</v>
+        <v>1.223791221653908e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>122476.8656428485</v>
+        <v>135182.0414786955</v>
       </c>
     </row>
   </sheetData>
@@ -10262,28 +10262,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>136.6538464934194</v>
+        <v>165.1056376619691</v>
       </c>
       <c r="AB2" t="n">
-        <v>186.9758215144339</v>
+        <v>225.9048173956625</v>
       </c>
       <c r="AC2" t="n">
-        <v>169.1311115313626</v>
+        <v>204.344778682888</v>
       </c>
       <c r="AD2" t="n">
-        <v>136653.8464934194</v>
+        <v>165105.6376619691</v>
       </c>
       <c r="AE2" t="n">
-        <v>186975.8215144339</v>
+        <v>225904.8173956625</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.143661812090761e-06</v>
+        <v>9.855811347778726e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.625</v>
       </c>
       <c r="AH2" t="n">
-        <v>169131.1115313626</v>
+        <v>204344.778682888</v>
       </c>
     </row>
   </sheetData>
@@ -10559,28 +10559,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.87241762290599</v>
+        <v>94.31042257803882</v>
       </c>
       <c r="AB2" t="n">
-        <v>113.3896978646471</v>
+        <v>129.0396808534171</v>
       </c>
       <c r="AC2" t="n">
-        <v>102.5679442439149</v>
+        <v>116.7243148211307</v>
       </c>
       <c r="AD2" t="n">
-        <v>82872.41762290598</v>
+        <v>94310.42257803882</v>
       </c>
       <c r="AE2" t="n">
-        <v>113389.6978646471</v>
+        <v>129039.6808534171</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.524384498392483e-06</v>
+        <v>1.266107829330059e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.45625</v>
       </c>
       <c r="AH2" t="n">
-        <v>102567.9442439149</v>
+        <v>116724.3148211307</v>
       </c>
     </row>
     <row r="3">
@@ -10665,28 +10665,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>80.2737013678059</v>
+        <v>91.71170632293875</v>
       </c>
       <c r="AB3" t="n">
-        <v>109.8340196371512</v>
+        <v>125.4840026259212</v>
       </c>
       <c r="AC3" t="n">
-        <v>99.35161495602433</v>
+        <v>113.5079855332402</v>
       </c>
       <c r="AD3" t="n">
-        <v>80273.7013678059</v>
+        <v>91711.70632293876</v>
       </c>
       <c r="AE3" t="n">
-        <v>109834.0196371512</v>
+        <v>125484.0026259212</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.707643352634865e-06</v>
+        <v>1.30167064298819e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.389583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>99351.61495602434</v>
+        <v>113507.9855332402</v>
       </c>
     </row>
   </sheetData>
@@ -10962,28 +10962,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>132.6679569711611</v>
+        <v>144.6548771838364</v>
       </c>
       <c r="AB2" t="n">
-        <v>181.5221516250475</v>
+        <v>197.9231846856189</v>
       </c>
       <c r="AC2" t="n">
-        <v>164.1979322419438</v>
+        <v>179.0336737262139</v>
       </c>
       <c r="AD2" t="n">
-        <v>132667.9569711611</v>
+        <v>144654.8771838364</v>
       </c>
       <c r="AE2" t="n">
-        <v>181522.1516250476</v>
+        <v>197923.1846856189</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.081045650565499e-06</v>
+        <v>9.534034575156591e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.039583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>164197.9322419438</v>
+        <v>179033.6737262139</v>
       </c>
     </row>
     <row r="3">
@@ -11068,28 +11068,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>81.91365049860984</v>
+        <v>93.81522985671356</v>
       </c>
       <c r="AB3" t="n">
-        <v>112.0778703873655</v>
+        <v>128.3621363257392</v>
       </c>
       <c r="AC3" t="n">
-        <v>101.3813157399032</v>
+        <v>116.1114341922345</v>
       </c>
       <c r="AD3" t="n">
-        <v>81913.65049860984</v>
+        <v>93815.22985671356</v>
       </c>
       <c r="AE3" t="n">
-        <v>112077.8703873655</v>
+        <v>128362.1363257392</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.774628684905383e-06</v>
+        <v>1.271186062037191e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.280208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>101381.3157399032</v>
+        <v>116111.4341922345</v>
       </c>
     </row>
   </sheetData>
@@ -11365,28 +11365,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>187.194852945417</v>
+        <v>214.5901804890963</v>
       </c>
       <c r="AB2" t="n">
-        <v>256.1282562538619</v>
+        <v>293.6117519956578</v>
       </c>
       <c r="AC2" t="n">
-        <v>231.6837349553333</v>
+        <v>265.5898584719609</v>
       </c>
       <c r="AD2" t="n">
-        <v>187194.852945417</v>
+        <v>214590.1804890963</v>
       </c>
       <c r="AE2" t="n">
-        <v>256128.2562538619</v>
+        <v>293611.7519956578</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.197739913088905e-06</v>
+        <v>7.997304847650959e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.20625</v>
       </c>
       <c r="AH2" t="n">
-        <v>231683.7349553333</v>
+        <v>265589.8584719609</v>
       </c>
     </row>
   </sheetData>
@@ -11662,28 +11662,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.2275910237046</v>
+        <v>103.7701441178185</v>
       </c>
       <c r="AB2" t="n">
-        <v>112.5074176638784</v>
+        <v>141.9828891975976</v>
       </c>
       <c r="AC2" t="n">
-        <v>101.7698676272192</v>
+        <v>128.4322415268538</v>
       </c>
       <c r="AD2" t="n">
-        <v>82227.5910237046</v>
+        <v>103770.1441178185</v>
       </c>
       <c r="AE2" t="n">
-        <v>112507.4176638784</v>
+        <v>141982.8891975976</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.257972814889396e-06</v>
+        <v>1.288693989906117e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.717708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>101769.8676272192</v>
+        <v>128432.2415268538</v>
       </c>
     </row>
     <row r="3">
@@ -11768,28 +11768,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>82.24224226269392</v>
+        <v>103.7847953568078</v>
       </c>
       <c r="AB3" t="n">
-        <v>112.5274641354306</v>
+        <v>142.0029356691498</v>
       </c>
       <c r="AC3" t="n">
-        <v>101.7880008916619</v>
+        <v>128.4503747912965</v>
       </c>
       <c r="AD3" t="n">
-        <v>82242.24226269392</v>
+        <v>103784.7953568079</v>
       </c>
       <c r="AE3" t="n">
-        <v>112527.4641354307</v>
+        <v>142002.9356691499</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.27822198322733e-06</v>
+        <v>1.292863867646015e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.709375</v>
       </c>
       <c r="AH3" t="n">
-        <v>101788.0008916619</v>
+        <v>128450.3747912965</v>
       </c>
     </row>
   </sheetData>
@@ -12065,28 +12065,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.96089495901614</v>
+        <v>92.30754314236118</v>
       </c>
       <c r="AB2" t="n">
-        <v>110.7742682254862</v>
+        <v>126.2992528487199</v>
       </c>
       <c r="AC2" t="n">
-        <v>100.2021275387361</v>
+        <v>114.245429418986</v>
       </c>
       <c r="AD2" t="n">
-        <v>80960.89495901615</v>
+        <v>92307.54314236119</v>
       </c>
       <c r="AE2" t="n">
-        <v>110774.2682254862</v>
+        <v>126299.2528487199</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.538261194712697e-06</v>
+        <v>1.2953499197651e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.505208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>100202.1275387361</v>
+        <v>114245.429418986</v>
       </c>
     </row>
     <row r="3">
@@ -12171,28 +12171,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>80.49810405235252</v>
+        <v>91.67416003510534</v>
       </c>
       <c r="AB3" t="n">
-        <v>110.1410572900955</v>
+        <v>125.4326301384823</v>
       </c>
       <c r="AC3" t="n">
-        <v>99.62934936630172</v>
+        <v>113.4615159639006</v>
       </c>
       <c r="AD3" t="n">
-        <v>80498.10405235252</v>
+        <v>91674.16003510535</v>
       </c>
       <c r="AE3" t="n">
-        <v>110141.0572900955</v>
+        <v>125432.6301384823</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.588100775310108e-06</v>
+        <v>1.305224058286851e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.485416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>99629.34936630173</v>
+        <v>113461.5159639006</v>
       </c>
     </row>
   </sheetData>
